--- a/ShowData.xlsx
+++ b/ShowData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\go\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\go\src\belly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037D05BA-5D66-4F24-B492-15818F6BA1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667C895-24D6-467A-B17F-049E89E4A0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57600" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{F6529FAE-2E69-4DC6-97C8-E0DC9CBC43C4}"/>
   </bookViews>
@@ -11748,7 +11748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FF347A-B734-4130-B961-806397CDFF1F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
